--- a/document/单位数据属性.xlsx
+++ b/document/单位数据属性.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576">
   <si>
     <t>国标</t>
   </si>
@@ -1736,15 +1736,6 @@
     <t>notOutNum</t>
   </si>
   <si>
-    <t>FORMAL_NUM</t>
-  </si>
-  <si>
-    <t>尚未转入的新录用公务员数</t>
-  </si>
-  <si>
-    <t>formalNum</t>
-  </si>
-  <si>
     <t>NOT_INTO_SECTION_CHIEF_NUM</t>
   </si>
   <si>
@@ -1786,10 +1777,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1813,9 +1804,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1829,7 +1834,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1837,30 +1842,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1874,44 +1864,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1921,22 +1873,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1952,6 +1889,60 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1984,7 +1975,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1996,31 +2005,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2038,37 +2029,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2080,7 +2053,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2098,13 +2083,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2116,13 +2107,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2134,37 +2155,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2193,6 +2184,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2208,17 +2208,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2240,17 +2234,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2258,20 +2241,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2290,6 +2270,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2298,10 +2289,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2310,133 +2301,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3699,10 +3690,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5671,7 +5662,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="105" ht="24" spans="1:8">
+    <row r="105" spans="1:8">
       <c r="A105" s="5" t="s">
         <v>564</v>
       </c>
@@ -5713,17 +5704,6 @@
       </c>
       <c r="H108" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="H109" t="s">
-        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/document/单位数据属性.xlsx
+++ b/document/单位数据属性.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="12210" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="11625" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="单位基本情况（B01）" sheetId="1" r:id="rId1"/>
     <sheet name="单位编制情况（B02）" sheetId="2" r:id="rId2"/>
+    <sheet name="事业单位编制情况（B02_INSTITUTION）" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909">
   <si>
     <t>国标</t>
   </si>
@@ -608,6 +609,12 @@
   </si>
   <si>
     <t>机构类别</t>
+  </si>
+  <si>
+    <t>去掉</t>
+  </si>
+  <si>
+    <t>0305</t>
   </si>
   <si>
     <t>BaseUnitFormation</t>
@@ -1574,150 +1581,6 @@
     <t>manageMark</t>
   </si>
   <si>
-    <t>B02325_A</t>
-  </si>
-  <si>
-    <t>定编 处级及相当者人数</t>
-  </si>
-  <si>
-    <t>approveDivisionChiefLevelNumber</t>
-  </si>
-  <si>
-    <t>B02325_B</t>
-  </si>
-  <si>
-    <t>缺（超）编  处级及相当者人数</t>
-  </si>
-  <si>
-    <t>vacancyDivisionChiefLevelNumber</t>
-  </si>
-  <si>
-    <t>B02330_A</t>
-  </si>
-  <si>
-    <t>定编 副处级及相当者人数</t>
-  </si>
-  <si>
-    <t>approveDeputyDivisionChiefLevelNumber</t>
-  </si>
-  <si>
-    <t>B02330_B</t>
-  </si>
-  <si>
-    <t>缺（超）编 副处级及相当者人数</t>
-  </si>
-  <si>
-    <t>vacancyDeputyDivisionChiefLevelNumber</t>
-  </si>
-  <si>
-    <t>B02335_A</t>
-  </si>
-  <si>
-    <t>定编 科级及相当者人数</t>
-  </si>
-  <si>
-    <t>approveSectionChiefLevelNumber</t>
-  </si>
-  <si>
-    <t>B02335_B</t>
-  </si>
-  <si>
-    <t>缺（超）编 科级及相当者人数</t>
-  </si>
-  <si>
-    <t>vacancySectionChiefLevelNumber</t>
-  </si>
-  <si>
-    <t>B02340_A</t>
-  </si>
-  <si>
-    <t>定编 副科级及相当者人数</t>
-  </si>
-  <si>
-    <t>approveDeputySectionChiefLevelNumber</t>
-  </si>
-  <si>
-    <t>B02340_B</t>
-  </si>
-  <si>
-    <t>缺（超）编 副科级及相当者人数</t>
-  </si>
-  <si>
-    <t>vacancyDeputySectionChiefLevelNumber</t>
-  </si>
-  <si>
-    <t>B02345_A</t>
-  </si>
-  <si>
-    <t>定编 科员、办事员及其他人员数</t>
-  </si>
-  <si>
-    <t>approveStaffMembersNumber</t>
-  </si>
-  <si>
-    <t>B02345_B</t>
-  </si>
-  <si>
-    <t>缺（超）编 科员、办事员及其他人员数</t>
-  </si>
-  <si>
-    <t>vacancyStaffMembersNumber</t>
-  </si>
-  <si>
-    <t>B02335_NL_A</t>
-  </si>
-  <si>
-    <t>定编 科级及相当者人数（非领导）</t>
-  </si>
-  <si>
-    <t>approveNonLeaderSectionChiefLevelNumber</t>
-  </si>
-  <si>
-    <t>B02335_NL</t>
-  </si>
-  <si>
-    <t>实有 科级及相当者人数（非领导）</t>
-  </si>
-  <si>
-    <t>nonLeaderSectionChiefLevelNumber</t>
-  </si>
-  <si>
-    <t>B02335_NL_B</t>
-  </si>
-  <si>
-    <t>缺（超）编 科级及相当者人数（非领导）</t>
-  </si>
-  <si>
-    <t>vacancyNonLeaderSectionChiefLevelNumber</t>
-  </si>
-  <si>
-    <t>B02340_NL_A</t>
-  </si>
-  <si>
-    <t>定编 副科级及相当者人数（非领导）</t>
-  </si>
-  <si>
-    <t>approveNonLeaderDeputySectionChiefLevelNumber</t>
-  </si>
-  <si>
-    <t>B02340_NL</t>
-  </si>
-  <si>
-    <t>实有 副科级及相当者人数（非领导）</t>
-  </si>
-  <si>
-    <t>nonLeaderDeputySectionChiefLevelNumber</t>
-  </si>
-  <si>
-    <t>B02340_NL_B</t>
-  </si>
-  <si>
-    <t>缺（超）编 副科级及相当者人数（非领导）</t>
-  </si>
-  <si>
-    <t>vacancyNonLeaderDeputySectionChiefLevelNumber</t>
-  </si>
-  <si>
     <t>NOT_INTO_NUM</t>
   </si>
   <si>
@@ -1736,40 +1599,1177 @@
     <t>notOutNum</t>
   </si>
   <si>
-    <t>NOT_INTO_SECTION_CHIEF_NUM</t>
-  </si>
-  <si>
-    <t>正科未调入人员</t>
-  </si>
-  <si>
-    <t>notIntoSectionChiefNum</t>
-  </si>
-  <si>
-    <t>NOT_OUT_SECTION_CHIEF_NUM</t>
-  </si>
-  <si>
-    <t>正科未调出人员</t>
-  </si>
-  <si>
-    <t>notOutSectionChiefNum</t>
-  </si>
-  <si>
-    <t>NOT_INTO_DEPUTY_SECTION_CHIEF_NUM</t>
-  </si>
-  <si>
-    <t>副科未调入人员</t>
-  </si>
-  <si>
-    <t>notIntoDeputySectionChiefNum</t>
-  </si>
-  <si>
-    <t>NOT_OUT_DEPUTY_SECTION_CHIEF_NUM</t>
-  </si>
-  <si>
-    <t>副科未调出人员</t>
-  </si>
-  <si>
-    <t>notOutDeputySectionChiefNum</t>
+    <t>CHU_A</t>
+  </si>
+  <si>
+    <t>定编 处级人数</t>
+  </si>
+  <si>
+    <t>approveChuNum</t>
+  </si>
+  <si>
+    <t>CHU_B</t>
+  </si>
+  <si>
+    <t>实有 处级人数</t>
+  </si>
+  <si>
+    <t>realChuNum</t>
+  </si>
+  <si>
+    <t>PLUS_KE_LEADER_A</t>
+  </si>
+  <si>
+    <t>定编 正科级领导人数</t>
+  </si>
+  <si>
+    <t>approvePlusKeLeaderNum</t>
+  </si>
+  <si>
+    <t>PLUS_KE_LEADER_B</t>
+  </si>
+  <si>
+    <t>实有 正科级领导人数</t>
+  </si>
+  <si>
+    <t>realPlusKeLeaderNum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_PLUS_KE_LEADER</t>
+  </si>
+  <si>
+    <t>未调入 正科级领导人数</t>
+  </si>
+  <si>
+    <t>notIntoPlusKeLeaderNum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_PLUS_KE_LEADER</t>
+  </si>
+  <si>
+    <t>未调出 正科级领导人数</t>
+  </si>
+  <si>
+    <t>notOutPlusKeLeaderNum</t>
+  </si>
+  <si>
+    <t>PLUS_KE_NOLEADER_A</t>
+  </si>
+  <si>
+    <t>定编 正科级非领导人数</t>
+  </si>
+  <si>
+    <t>approvePlusKeNoLeaderNum</t>
+  </si>
+  <si>
+    <t>PLUS_KE_NOLEADER_B</t>
+  </si>
+  <si>
+    <t>实有 正科级非领导人数</t>
+  </si>
+  <si>
+    <t>realPlusKeNoLeaderNum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_PLUS_KE_NOLEADER</t>
+  </si>
+  <si>
+    <t>未调入 正科级非领导人数</t>
+  </si>
+  <si>
+    <t>notIntoPlusKeNoLeaderNum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_PLUS_KE_NOLEADER</t>
+  </si>
+  <si>
+    <t>未调出 正科级非领导人数</t>
+  </si>
+  <si>
+    <t>notOutPlusKeNoLeaderNum</t>
+  </si>
+  <si>
+    <t>MINUS_KE_LEADER_A</t>
+  </si>
+  <si>
+    <t>定编 副科级领导人数</t>
+  </si>
+  <si>
+    <t>approveMinusKeLeaderNum</t>
+  </si>
+  <si>
+    <t>MINUS_KE_LEADER_B</t>
+  </si>
+  <si>
+    <t>实有 副科级领导人数</t>
+  </si>
+  <si>
+    <t>realMinusKeLeaderNum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_MINUS_KE_LEADER</t>
+  </si>
+  <si>
+    <t>未调入 副科级领导人数</t>
+  </si>
+  <si>
+    <t>notIntoMinusKeLeaderNum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_MINUS_KE_LEADER</t>
+  </si>
+  <si>
+    <t>未调出 副科级领导人数</t>
+  </si>
+  <si>
+    <t>notOutMinusKeLeaderNum</t>
+  </si>
+  <si>
+    <t>MINUS_KE_NOLEADER_A</t>
+  </si>
+  <si>
+    <t>定编 副科级非领导人数</t>
+  </si>
+  <si>
+    <t>approveMinusKeNoLeaderNum</t>
+  </si>
+  <si>
+    <t>MINUS_KE_NOLEADER_B</t>
+  </si>
+  <si>
+    <t>实有 副科级非领导人数</t>
+  </si>
+  <si>
+    <t>realMinusKeNoLeaderNum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_MINUS_KE_NOLEADER</t>
+  </si>
+  <si>
+    <t>未调入 副科级非领导人数</t>
+  </si>
+  <si>
+    <t>notIntoMinusKeNoLeaderNum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_MINUS_KE_NOLEADER</t>
+  </si>
+  <si>
+    <t>未调出 副科级非领导人数</t>
+  </si>
+  <si>
+    <t>notOutMinusKeNoLeaderNum</t>
+  </si>
+  <si>
+    <t>MGR_I_A</t>
+  </si>
+  <si>
+    <t>定编 管理人员一级人数</t>
+  </si>
+  <si>
+    <t>approveMgrLevelINum</t>
+  </si>
+  <si>
+    <t>MGR_I_B</t>
+  </si>
+  <si>
+    <t>实有 管理人员一级人数</t>
+  </si>
+  <si>
+    <t>realMgrLevelINum</t>
+  </si>
+  <si>
+    <t>vacancyMgrLevelINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_MGR_I</t>
+  </si>
+  <si>
+    <t>未调入 管理人员一级人数</t>
+  </si>
+  <si>
+    <t>notIntoMgrLevelINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_MGR_I</t>
+  </si>
+  <si>
+    <t>未调出 管理人员一级人数</t>
+  </si>
+  <si>
+    <t>notOutMgrLevelINum</t>
+  </si>
+  <si>
+    <t>MGR_II_A</t>
+  </si>
+  <si>
+    <t>定编 管理人员二级人数</t>
+  </si>
+  <si>
+    <t>approveMgrLevelIINum</t>
+  </si>
+  <si>
+    <t>MGR_II_B</t>
+  </si>
+  <si>
+    <t>实有 管理人员二级人数</t>
+  </si>
+  <si>
+    <t>realMgrLevelIINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_MGR_II</t>
+  </si>
+  <si>
+    <t>未调入 管理人员二级人数</t>
+  </si>
+  <si>
+    <t>notIntoMgrLevelIINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_MGR_II</t>
+  </si>
+  <si>
+    <t>未调出 管理人员二级人数</t>
+  </si>
+  <si>
+    <t>notOutMgrLevelIINum</t>
+  </si>
+  <si>
+    <t>MGR_III_A</t>
+  </si>
+  <si>
+    <t>定编 管理人员三级人数</t>
+  </si>
+  <si>
+    <t>approveMgrLevelIIINum</t>
+  </si>
+  <si>
+    <t>MGR_III_B</t>
+  </si>
+  <si>
+    <t>实有 管理人员三级人数</t>
+  </si>
+  <si>
+    <t>realMgrLevelIIINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_MGR_III</t>
+  </si>
+  <si>
+    <t>未调入 管理人员三级人数</t>
+  </si>
+  <si>
+    <t>notIntoMgrLevelIIINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_MGR_III</t>
+  </si>
+  <si>
+    <t>未调出 管理人员三级人数</t>
+  </si>
+  <si>
+    <t>notOutMgrLevelIIINum</t>
+  </si>
+  <si>
+    <t>MGR_IV_A</t>
+  </si>
+  <si>
+    <t>定编 管理人员四级人数</t>
+  </si>
+  <si>
+    <t>approveMgrLevelIVNum</t>
+  </si>
+  <si>
+    <t>MGR_IV_B</t>
+  </si>
+  <si>
+    <t>实有 管理人员四级人数</t>
+  </si>
+  <si>
+    <t>realMgrLevelIVNum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_MGR_IV</t>
+  </si>
+  <si>
+    <t>未调入 管理人员四级人数</t>
+  </si>
+  <si>
+    <t>notIntoMgrLevelIVNum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_MGR_IV</t>
+  </si>
+  <si>
+    <t>未调出 管理人员四级人数</t>
+  </si>
+  <si>
+    <t>notOutMgrLevelIVNum</t>
+  </si>
+  <si>
+    <t>MGR_V_A</t>
+  </si>
+  <si>
+    <t>定编 管理人员五级人数</t>
+  </si>
+  <si>
+    <t>approveMgrLevelVNum</t>
+  </si>
+  <si>
+    <t>MGR_V_B</t>
+  </si>
+  <si>
+    <t>实有 管理人员五级人数</t>
+  </si>
+  <si>
+    <t>realMgrLevelVNum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_MGR_V</t>
+  </si>
+  <si>
+    <t>未调入 管理人员五级人数</t>
+  </si>
+  <si>
+    <t>notIntoMgrLevelVNum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_MGR_V</t>
+  </si>
+  <si>
+    <t>未调出 管理人员五级人数</t>
+  </si>
+  <si>
+    <t>notOutMgrLevelVNum</t>
+  </si>
+  <si>
+    <t>MGR_VI_A</t>
+  </si>
+  <si>
+    <t>定编 管理人员六级人数</t>
+  </si>
+  <si>
+    <t>approveMgrLevelVINum</t>
+  </si>
+  <si>
+    <t>MGR_VI_B</t>
+  </si>
+  <si>
+    <t>实有 管理人员六级人数</t>
+  </si>
+  <si>
+    <t>realMgrLevelVINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_MGR_VI</t>
+  </si>
+  <si>
+    <t>未调入 管理人员六级人数</t>
+  </si>
+  <si>
+    <t>notIntoMgrLevelVINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_MGR_VI</t>
+  </si>
+  <si>
+    <t>未调出 管理人员六级人数</t>
+  </si>
+  <si>
+    <t>notOutMgrLevelVINum</t>
+  </si>
+  <si>
+    <t>MGR_VII_A</t>
+  </si>
+  <si>
+    <t>定编 管理人员七级人数</t>
+  </si>
+  <si>
+    <t>approveMgrLevelVIINum</t>
+  </si>
+  <si>
+    <t>MGR_VII_B</t>
+  </si>
+  <si>
+    <t>实有 管理人员七级人数</t>
+  </si>
+  <si>
+    <t>realMgrLevelVIINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_MGR_VII</t>
+  </si>
+  <si>
+    <t>未调入 管理人员七级人数</t>
+  </si>
+  <si>
+    <t>notIntoMgrLevelVIINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_MGR_VII</t>
+  </si>
+  <si>
+    <t>未调出 管理人员七级人数</t>
+  </si>
+  <si>
+    <t>notOutMgrLevelVIINum</t>
+  </si>
+  <si>
+    <t>MGR_VIII_A</t>
+  </si>
+  <si>
+    <t>定编 管理人员八级人数</t>
+  </si>
+  <si>
+    <t>approveMgrLevelVIIINum</t>
+  </si>
+  <si>
+    <t>MGR_VIII_B</t>
+  </si>
+  <si>
+    <t>实有 管理人员八级人数</t>
+  </si>
+  <si>
+    <t>realMgrLevelVIIINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_MGR_VIII</t>
+  </si>
+  <si>
+    <t>未调入 管理人员八级人数</t>
+  </si>
+  <si>
+    <t>notIntoMgrLevelVIIINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_MGR_VIII</t>
+  </si>
+  <si>
+    <t>未调出 管理人员八级人数</t>
+  </si>
+  <si>
+    <t>notOutMgrLevelVIIINum</t>
+  </si>
+  <si>
+    <t>MGR_IX_A</t>
+  </si>
+  <si>
+    <t>定编 管理人员九级人数</t>
+  </si>
+  <si>
+    <t>approveMgrLevelIXNum</t>
+  </si>
+  <si>
+    <t>MGR_IX_B</t>
+  </si>
+  <si>
+    <t>实有 管理人员九级人数</t>
+  </si>
+  <si>
+    <t>realMgrLevelIXNum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_MGR_IX</t>
+  </si>
+  <si>
+    <t>未调入 管理人员九级人数</t>
+  </si>
+  <si>
+    <t>notIntoMgrLevelIXNum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_MGR_IX</t>
+  </si>
+  <si>
+    <t>未调出 管理人员九级人数</t>
+  </si>
+  <si>
+    <t>notOutMgrLevelIXNum</t>
+  </si>
+  <si>
+    <t>MGR_X_A</t>
+  </si>
+  <si>
+    <t>定编 管理人员十级人数</t>
+  </si>
+  <si>
+    <t>approveMgrLevelXNum</t>
+  </si>
+  <si>
+    <t>MGR_X_B</t>
+  </si>
+  <si>
+    <t>实有 管理人员十级人数</t>
+  </si>
+  <si>
+    <t>realMgrLevelXNum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_MGR_X</t>
+  </si>
+  <si>
+    <t>未调入 管理人员十级人数</t>
+  </si>
+  <si>
+    <t>notIntoMgrLevelXNum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_MGR_X</t>
+  </si>
+  <si>
+    <t>未调出 管理人员十级人数</t>
+  </si>
+  <si>
+    <t>notOutMgrLevelXNum</t>
+  </si>
+  <si>
+    <t>TECH_I_A</t>
+  </si>
+  <si>
+    <t>定编 专业技术人员一级人数</t>
+  </si>
+  <si>
+    <t>approveTechLevelINum</t>
+  </si>
+  <si>
+    <t>TECH_I_B</t>
+  </si>
+  <si>
+    <t>实有 专业技术人员一级人数</t>
+  </si>
+  <si>
+    <t>realTechLevelINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_TECH_I</t>
+  </si>
+  <si>
+    <t>未调入 专业技术人员一级人数</t>
+  </si>
+  <si>
+    <t>notIntoTechLevelINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_TECH_I</t>
+  </si>
+  <si>
+    <t>未调出 专业技术人员一级人数</t>
+  </si>
+  <si>
+    <t>notOutTechLevelINum</t>
+  </si>
+  <si>
+    <t>TECH_II_A</t>
+  </si>
+  <si>
+    <t>定编 专业技术人员二级人数</t>
+  </si>
+  <si>
+    <t>approveTechLevelIINum</t>
+  </si>
+  <si>
+    <t>TECH_II_B</t>
+  </si>
+  <si>
+    <t>实有 专业技术人员二级人数</t>
+  </si>
+  <si>
+    <t>realTechLevelIINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_TECH_II</t>
+  </si>
+  <si>
+    <t>未调入 专业技术人员二级人数</t>
+  </si>
+  <si>
+    <t>notIntoTechLevelIINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_TECH_II</t>
+  </si>
+  <si>
+    <t>未调出 专业技术人员二级人数</t>
+  </si>
+  <si>
+    <t>notOutTechLevelIINum</t>
+  </si>
+  <si>
+    <t>TECH_III_A</t>
+  </si>
+  <si>
+    <t>定编 专业技术人员三级人数</t>
+  </si>
+  <si>
+    <t>approveTechLevelIIINum</t>
+  </si>
+  <si>
+    <t>TECH_III_B</t>
+  </si>
+  <si>
+    <t>实有 专业技术人员三级人数</t>
+  </si>
+  <si>
+    <t>realTechLevelIIINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_TECH_III</t>
+  </si>
+  <si>
+    <t>未调入 专业技术人员三级人数</t>
+  </si>
+  <si>
+    <t>notIntoTechLevelIIINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_TECH_III</t>
+  </si>
+  <si>
+    <t>未调出 专业技术人员三级人数</t>
+  </si>
+  <si>
+    <t>notOutTechLevelIIINum</t>
+  </si>
+  <si>
+    <t>TECH_IV_A</t>
+  </si>
+  <si>
+    <t>定编 专业技术人员四级人数</t>
+  </si>
+  <si>
+    <t>approveTechLevelIVNum</t>
+  </si>
+  <si>
+    <t>TECH_IV_B</t>
+  </si>
+  <si>
+    <t>实有 专业技术人员四级人数</t>
+  </si>
+  <si>
+    <t>realTechLevelIVNum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_TECH_IV</t>
+  </si>
+  <si>
+    <t>未调入 专业技术人员四级人数</t>
+  </si>
+  <si>
+    <t>notIntoTechLevelIVNum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_TECH_IV</t>
+  </si>
+  <si>
+    <t>未调出 专业技术人员四级人数</t>
+  </si>
+  <si>
+    <t>notOutTechLevelIVNum</t>
+  </si>
+  <si>
+    <t>TECH_V_A</t>
+  </si>
+  <si>
+    <t>定编 专业技术人员五级人数</t>
+  </si>
+  <si>
+    <t>approveTechLevelVNum</t>
+  </si>
+  <si>
+    <t>TECH_V_B</t>
+  </si>
+  <si>
+    <t>实有 专业技术人员五级人数</t>
+  </si>
+  <si>
+    <t>realTechLevelVNum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_TECH_V</t>
+  </si>
+  <si>
+    <t>未调入 专业技术人员五级人数</t>
+  </si>
+  <si>
+    <t>notIntoTechLevelVNum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_TECH_V</t>
+  </si>
+  <si>
+    <t>未调出 专业技术人员五级人数</t>
+  </si>
+  <si>
+    <t>notOutTechLevelVNum</t>
+  </si>
+  <si>
+    <t>TECH_VI_A</t>
+  </si>
+  <si>
+    <t>定编 专业技术人员六级人数</t>
+  </si>
+  <si>
+    <t>approveTechLevelVINum</t>
+  </si>
+  <si>
+    <t>TECH_VI_B</t>
+  </si>
+  <si>
+    <t>实有 专业技术人员六级人数</t>
+  </si>
+  <si>
+    <t>realTechLevelVINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_TECH_VI</t>
+  </si>
+  <si>
+    <t>未调入 专业技术人员六级人数</t>
+  </si>
+  <si>
+    <t>notIntoTechLevelVINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_TECH_VI</t>
+  </si>
+  <si>
+    <t>未调出 专业技术人员六级人数</t>
+  </si>
+  <si>
+    <t>notOutTechLevelVINum</t>
+  </si>
+  <si>
+    <t>TECH_VII_A</t>
+  </si>
+  <si>
+    <t>定编 专业技术人员七级人数</t>
+  </si>
+  <si>
+    <t>approveTechLevelVIINum</t>
+  </si>
+  <si>
+    <t>TECH_VII_B</t>
+  </si>
+  <si>
+    <t>实有 专业技术人员七级人数</t>
+  </si>
+  <si>
+    <t>realTechLevelVIINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_TECH_VII</t>
+  </si>
+  <si>
+    <t>未调入 专业技术人员七级人数</t>
+  </si>
+  <si>
+    <t>notIntoTechLevelVIINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_TECH_VII</t>
+  </si>
+  <si>
+    <t>未调出 专业技术人员七级人数</t>
+  </si>
+  <si>
+    <t>notOutTechLevelVIINum</t>
+  </si>
+  <si>
+    <t>TECH_VIII_A</t>
+  </si>
+  <si>
+    <t>定编 专业技术人员八级人数</t>
+  </si>
+  <si>
+    <t>approveTechLevelVIIINum</t>
+  </si>
+  <si>
+    <t>TECH_VIII_B</t>
+  </si>
+  <si>
+    <t>实有 专业技术人员八级人数</t>
+  </si>
+  <si>
+    <t>realTechLevelVIIINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_TECH_VIII</t>
+  </si>
+  <si>
+    <t>未调入 专业技术人员八级人数</t>
+  </si>
+  <si>
+    <t>notIntoTechLevelVIIINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_TECH_VIII</t>
+  </si>
+  <si>
+    <t>未调出 专业技术人员八级人数</t>
+  </si>
+  <si>
+    <t>notOutTechLevelVIIINum</t>
+  </si>
+  <si>
+    <t>TECH_IX_A</t>
+  </si>
+  <si>
+    <t>定编 专业技术人员九级人数</t>
+  </si>
+  <si>
+    <t>approveTechLevelIXNum</t>
+  </si>
+  <si>
+    <t>TECH_IX_B</t>
+  </si>
+  <si>
+    <t>实有 专业技术人员九级人数</t>
+  </si>
+  <si>
+    <t>realTechLevelIXNum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_TECH_IX</t>
+  </si>
+  <si>
+    <t>未调入 专业技术人员九级人数</t>
+  </si>
+  <si>
+    <t>notIntoTechLevelIXNum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_TECH_IX</t>
+  </si>
+  <si>
+    <t>未调出 专业技术人员九级人数</t>
+  </si>
+  <si>
+    <t>notOutTechLevelIXNum</t>
+  </si>
+  <si>
+    <t>TECH_X_A</t>
+  </si>
+  <si>
+    <t>定编 专业技术人员十级人数</t>
+  </si>
+  <si>
+    <t>approveTechLevelXNum</t>
+  </si>
+  <si>
+    <t>TECH_X_B</t>
+  </si>
+  <si>
+    <t>实有 专业技术人员十级人数</t>
+  </si>
+  <si>
+    <t>realTechLevelXNum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_TECH_X</t>
+  </si>
+  <si>
+    <t>未调入 专业技术人员十级人数</t>
+  </si>
+  <si>
+    <t>notIntoTechLevelXNum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_TECH_X</t>
+  </si>
+  <si>
+    <t>未调出 专业技术人员十级人数</t>
+  </si>
+  <si>
+    <t>notOutTechLevelXNum</t>
+  </si>
+  <si>
+    <t>TECH_XI_A</t>
+  </si>
+  <si>
+    <t>定编 专业技术人员十一级人数</t>
+  </si>
+  <si>
+    <t>approveTechLevelXINum</t>
+  </si>
+  <si>
+    <t>TECH_XI_B</t>
+  </si>
+  <si>
+    <t>实有 专业技术人员十一级人数</t>
+  </si>
+  <si>
+    <t>realTechLevelXINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_TECH_XI</t>
+  </si>
+  <si>
+    <t>未调入 专业技术人员十一级人数</t>
+  </si>
+  <si>
+    <t>notIntoTechLevelXINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_TECH_XI</t>
+  </si>
+  <si>
+    <t>未调出 专业技术人员十一级人数</t>
+  </si>
+  <si>
+    <t>notOutTechLevelXINum</t>
+  </si>
+  <si>
+    <t>TECH_XII_A</t>
+  </si>
+  <si>
+    <t>定编 专业技术人员十二级人数</t>
+  </si>
+  <si>
+    <t>approveTechLevelXIINum</t>
+  </si>
+  <si>
+    <t>TECH_XII_B</t>
+  </si>
+  <si>
+    <t>实有 专业技术人员十二级人数</t>
+  </si>
+  <si>
+    <t>realTechLevelXIINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_TECH_XII</t>
+  </si>
+  <si>
+    <t>未调入 专业技术人员十二级人数</t>
+  </si>
+  <si>
+    <t>notIntoTechLevelXIINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_TECH_XII</t>
+  </si>
+  <si>
+    <t>未调出 专业技术人员十二级人数</t>
+  </si>
+  <si>
+    <t>notOutTechLevelXIINum</t>
+  </si>
+  <si>
+    <t>TECH_XIII_A</t>
+  </si>
+  <si>
+    <t>定编 专业技术人员十三级人数</t>
+  </si>
+  <si>
+    <t>approveTechLeveXIIINum</t>
+  </si>
+  <si>
+    <t>TECH_XIII_B</t>
+  </si>
+  <si>
+    <t>实有 专业技术人员十三级人数</t>
+  </si>
+  <si>
+    <t>realTechLevelXIIINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_TECH_XIII</t>
+  </si>
+  <si>
+    <t>未调入 专业技术人员十三级人数</t>
+  </si>
+  <si>
+    <t>notIntoTechLevelXIIINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_TECH_XIII</t>
+  </si>
+  <si>
+    <t>未调出 专业技术人员十三级人数</t>
+  </si>
+  <si>
+    <t>notOutTechLevelXIIINum</t>
+  </si>
+  <si>
+    <t>WORK_I_A</t>
+  </si>
+  <si>
+    <t>定编 工勤人员一级人数</t>
+  </si>
+  <si>
+    <t>approveWorkLevelINum</t>
+  </si>
+  <si>
+    <t>WORK_I_B</t>
+  </si>
+  <si>
+    <t>实有 工勤人员一级人数</t>
+  </si>
+  <si>
+    <t>realWorkLevelINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_WORK_I</t>
+  </si>
+  <si>
+    <t>未调入 工勤人员一级人数</t>
+  </si>
+  <si>
+    <t>notIntoWorkLevelINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_WORK_I</t>
+  </si>
+  <si>
+    <t>未调出 工勤人员一级人数</t>
+  </si>
+  <si>
+    <t>notOutWorkLevelINum</t>
+  </si>
+  <si>
+    <t>WORK_II_A</t>
+  </si>
+  <si>
+    <t>定编 工勤人员二级人数</t>
+  </si>
+  <si>
+    <t>approveWorkLevelIINum</t>
+  </si>
+  <si>
+    <t>WORK_II_B</t>
+  </si>
+  <si>
+    <t>实有 工勤人员二级人数</t>
+  </si>
+  <si>
+    <t>realWorkLevelIINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_WORK_II</t>
+  </si>
+  <si>
+    <t>未调入 工勤人员二级人数</t>
+  </si>
+  <si>
+    <t>notIntoWorkLevelIINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_WORK_II</t>
+  </si>
+  <si>
+    <t>未调出 工勤人员二级人数</t>
+  </si>
+  <si>
+    <t>notOutWorkLevelIINum</t>
+  </si>
+  <si>
+    <t>WORK_III_A</t>
+  </si>
+  <si>
+    <t>定编 工勤人员三级人数</t>
+  </si>
+  <si>
+    <t>approveWorkLevelIIINum</t>
+  </si>
+  <si>
+    <t>WORK_III_B</t>
+  </si>
+  <si>
+    <t>实有 工勤人员三级人数</t>
+  </si>
+  <si>
+    <t>realWorkLevelIIINum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_WORK_III</t>
+  </si>
+  <si>
+    <t>未调入 工勤人员三级人数</t>
+  </si>
+  <si>
+    <t>notIntoWorkLevelIIINum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_WORK_III</t>
+  </si>
+  <si>
+    <t>未调出 工勤人员三级人数</t>
+  </si>
+  <si>
+    <t>notOutWorkLevelIIINum</t>
+  </si>
+  <si>
+    <t>WORK_IV_A</t>
+  </si>
+  <si>
+    <t>定编 工勤人员四级人数</t>
+  </si>
+  <si>
+    <t>approveWorkLevelIVNum</t>
+  </si>
+  <si>
+    <t>WORK_IV_B</t>
+  </si>
+  <si>
+    <t>实有 工勤人员四级人数</t>
+  </si>
+  <si>
+    <t>realWorkLevelIVNum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_WORK_IV</t>
+  </si>
+  <si>
+    <t>未调入 工勤人员四级人数</t>
+  </si>
+  <si>
+    <t>notIntoWorkLevelIVNum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_WORK_IV</t>
+  </si>
+  <si>
+    <t>未调出 工勤人员四级人数</t>
+  </si>
+  <si>
+    <t>notOutWorkLevelIVNum</t>
+  </si>
+  <si>
+    <t>WORK_V_A</t>
+  </si>
+  <si>
+    <t>定编 工勤人员五级人数</t>
+  </si>
+  <si>
+    <t>approveWorkLevelVNum</t>
+  </si>
+  <si>
+    <t>WORK_V_B</t>
+  </si>
+  <si>
+    <t>实有 工勤人员五级人数</t>
+  </si>
+  <si>
+    <t>realWorkLevelVNum</t>
+  </si>
+  <si>
+    <t>NOT_INTO_WORK_V</t>
+  </si>
+  <si>
+    <t>未调入 工勤人员五级人数</t>
+  </si>
+  <si>
+    <t>notIntoWorkLevelVNum</t>
+  </si>
+  <si>
+    <t>NOT_OUT_WORK_V</t>
+  </si>
+  <si>
+    <t>未调出 工勤人员五级人数</t>
+  </si>
+  <si>
+    <t>notOutWorkLevelVNum</t>
   </si>
 </sst>
 </file>
@@ -1777,10 +2777,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1804,8 +2804,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1827,30 +2828,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1861,36 +2839,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1911,6 +2859,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1926,15 +2919,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1943,6 +2928,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1975,7 +2975,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1987,31 +3065,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2023,37 +3077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2065,7 +3089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2077,25 +3101,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2107,25 +3119,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2137,30 +3155,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2184,74 +3184,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2273,11 +3227,83 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2289,10 +3315,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2301,137 +3327,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2452,6 +3478,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2774,8 +3815,8 @@
   <sheetPr/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3670,12 +4711,18 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>196</v>
+      </c>
+      <c r="C44" t="s">
+        <v>197</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3690,10 +4737,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3702,7 +4749,7 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="32.125" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
     <col min="8" max="8" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3717,7 +4764,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3746,12 +4793,2079 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" ht="24" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" ht="24" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" ht="24" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" ht="24" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" ht="24" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" ht="24" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" ht="24" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" ht="24" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" ht="36" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" ht="24" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" ht="24" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" ht="36" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" ht="36" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" ht="24" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" ht="24" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" ht="24" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" ht="24" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" ht="24" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" ht="24" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" ht="24" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" ht="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" ht="60" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" ht="48" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" ht="24" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" ht="24" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" ht="24" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H30" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" ht="24" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="H31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" ht="24" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H34" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" ht="48" spans="1:8">
+      <c r="A35" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" ht="24" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" ht="72" spans="1:8">
+      <c r="A37" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" ht="36" spans="1:8">
+      <c r="A38" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" ht="36" spans="1:8">
+      <c r="A39" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" ht="60" spans="1:8">
+      <c r="A40" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H40" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="41" ht="60" spans="1:8">
+      <c r="A41" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H41" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" ht="24" spans="1:8">
+      <c r="A42" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H42" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43" ht="24" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" ht="24" spans="1:8">
+      <c r="A44" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" ht="24" spans="1:8">
+      <c r="A45" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" ht="24" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47" ht="24" spans="1:8">
+      <c r="A47" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H47" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" ht="24" spans="1:8">
+      <c r="A48" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" ht="24" spans="1:8">
+      <c r="A49" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50" ht="24" spans="1:8">
+      <c r="A50" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H50" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" ht="24" spans="1:8">
+      <c r="A51" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" ht="24" spans="1:8">
+      <c r="A52" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H52" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" ht="36" spans="1:8">
+      <c r="A53" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54" ht="24" spans="1:8">
+      <c r="A54" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" ht="24" spans="1:8">
+      <c r="A55" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H55" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" ht="24" spans="1:8">
+      <c r="A56" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H56" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57" ht="24" spans="1:8">
+      <c r="A57" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H57" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H58" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="59" ht="24" spans="1:8">
+      <c r="A59" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H59" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="60" ht="24" spans="1:8">
+      <c r="A60" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" ht="24" spans="1:8">
+      <c r="A61" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H61" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H62" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" ht="24" spans="1:8">
+      <c r="A63" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H63" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="64" ht="60" spans="1:8">
+      <c r="A64" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="65" ht="36" spans="1:8">
+      <c r="A65" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H65" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" ht="36" spans="1:8">
+      <c r="A66" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H66" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="67" ht="192" spans="1:8">
+      <c r="A67" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H67" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="68" ht="72" spans="1:8">
+      <c r="A68" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H68" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="69" ht="48" spans="1:8">
+      <c r="A69" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H69" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="70" ht="24" spans="1:8">
+      <c r="A70" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H70" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="71" ht="24" spans="1:8">
+      <c r="A71" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H71" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="72" ht="24" spans="1:8">
+      <c r="A72" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H72" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H73" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H74" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="75" ht="36" spans="1:8">
+      <c r="A75" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H75" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="76" ht="36" spans="1:8">
+      <c r="A76" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H76" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="77" ht="36" spans="1:8">
+      <c r="A77" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="H77" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="78" ht="24" spans="1:8">
+      <c r="A78" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H78" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C83" t="s">
+        <v>514</v>
+      </c>
+      <c r="H83" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C84" t="s">
+        <v>517</v>
+      </c>
+      <c r="H84" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C86" t="s">
+        <v>520</v>
+      </c>
+      <c r="H86" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C87" t="s">
+        <v>523</v>
+      </c>
+      <c r="H87" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C89" t="s">
+        <v>526</v>
+      </c>
+      <c r="H89" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C90" t="s">
+        <v>529</v>
+      </c>
+      <c r="H90" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C91" t="s">
+        <v>532</v>
+      </c>
+      <c r="H91" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C92" t="s">
+        <v>535</v>
+      </c>
+      <c r="H92" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C93" t="s">
+        <v>538</v>
+      </c>
+      <c r="H93" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C94" t="s">
+        <v>541</v>
+      </c>
+      <c r="H94" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C95" t="s">
+        <v>544</v>
+      </c>
+      <c r="H95" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C96" t="s">
+        <v>547</v>
+      </c>
+      <c r="H96" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C98" t="s">
+        <v>550</v>
+      </c>
+      <c r="H98" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C99" t="s">
+        <v>553</v>
+      </c>
+      <c r="H99" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C100" t="s">
+        <v>556</v>
+      </c>
+      <c r="H100" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C101" t="s">
+        <v>559</v>
+      </c>
+      <c r="H101" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C102" t="s">
+        <v>562</v>
+      </c>
+      <c r="H102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C103" t="s">
+        <v>565</v>
+      </c>
+      <c r="H103" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C104" t="s">
+        <v>568</v>
+      </c>
+      <c r="H104" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C105" t="s">
+        <v>571</v>
+      </c>
+      <c r="H105" t="s">
+        <v>571</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H203"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="33.125" customWidth="1"/>
+    <col min="8" max="8" width="29.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>141</v>
@@ -3763,7 +6877,7 @@
         <v>143</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H3" t="s">
         <v>145</v>
@@ -3771,10 +6885,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -3783,7 +6897,7 @@
         <v>148</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H4" t="s">
         <v>150</v>
@@ -3791,10 +6905,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -3803,7 +6917,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H5" t="s">
         <v>158</v>
@@ -3811,10 +6925,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -3826,7 +6940,7 @@
         <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H6" t="s">
         <v>162</v>
@@ -3834,53 +6948,53 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -3892,18 +7006,18 @@
         <v>52</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -3912,515 +7026,515 @@
         <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" ht="24" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" ht="24" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" ht="24" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" ht="24" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" ht="24" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" ht="24" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" ht="24" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" ht="24" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H19" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" ht="24" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H20" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" ht="24" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H21" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H23" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H24" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" ht="36" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H25" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" ht="36" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H26" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H27" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H28" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H29" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H30" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H31" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H32" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>84</v>
@@ -4432,18 +7546,18 @@
         <v>86</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H33" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>84</v>
@@ -4455,133 +7569,133 @@
         <v>86</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H34" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" ht="36" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H35" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H36" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" ht="48" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H37" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" ht="24" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H38" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" ht="24" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H39" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" ht="48" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>84</v>
@@ -4593,18 +7707,18 @@
         <v>86</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H40" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" ht="36" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>84</v>
@@ -4616,18 +7730,18 @@
         <v>86</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H41" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>84</v>
@@ -4639,18 +7753,18 @@
         <v>86</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H42" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" ht="24" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>84</v>
@@ -4662,64 +7776,64 @@
         <v>86</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H43" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" ht="24" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H44" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" ht="24" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H45" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" ht="24" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>84</v>
@@ -4731,18 +7845,18 @@
         <v>86</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H46" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" ht="24" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>84</v>
@@ -4754,340 +7868,340 @@
         <v>86</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H47" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="48" ht="24" spans="1:8">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H48" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" ht="24" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H49" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="50" ht="24" spans="1:8">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>394</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H50" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51" ht="24" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H51" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" ht="24" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H52" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53" ht="24" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H53" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H54" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H55" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56" ht="24" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H56" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H57" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H58" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H59" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H60" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H61" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>84</v>
@@ -5099,64 +8213,64 @@
         <v>86</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H62" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="63" ht="24" spans="1:8">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H63" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" ht="48" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" ht="24" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
@@ -5165,21 +8279,21 @@
         <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H65" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="66" ht="24" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
@@ -5188,21 +8302,21 @@
         <v>45</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H66" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67" ht="132" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>84</v>
@@ -5214,41 +8328,41 @@
         <v>86</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H67" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" ht="48" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H68" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="69" ht="36" spans="1:8">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="69" ht="24" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>84</v>
@@ -5260,18 +8374,18 @@
         <v>86</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H69" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="70" ht="24" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>84</v>
@@ -5283,18 +8397,18 @@
         <v>86</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H70" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="71" ht="24" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>84</v>
@@ -5306,18 +8420,18 @@
         <v>86</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H71" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>84</v>
@@ -5329,18 +8443,18 @@
         <v>86</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H72" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>141</v>
@@ -5352,18 +8466,18 @@
         <v>143</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H73" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
@@ -5372,18 +8486,18 @@
         <v>148</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H74" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="75" ht="24" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
@@ -5392,18 +8506,18 @@
         <v>79</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H75" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="76" ht="24" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>141</v>
@@ -5415,38 +8529,38 @@
         <v>143</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H76" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77" ht="24" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H77" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="78" ht="24" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -5458,252 +8572,1619 @@
         <v>181</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H78" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="B86" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="H86" t="s">
+    </row>
+    <row r="79" customFormat="1"/>
+    <row r="80" customFormat="1"/>
+    <row r="81" customFormat="1"/>
+    <row r="82" customFormat="1"/>
+    <row r="83" customFormat="1"/>
+    <row r="84" customFormat="1"/>
+    <row r="85" customFormat="1"/>
+    <row r="86" customFormat="1"/>
+    <row r="87" spans="1:8">
+      <c r="A87" s="5" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="87" ht="24" spans="1:8">
-      <c r="A87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="D87" t="s">
         <v>514</v>
       </c>
       <c r="H87" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="D88" t="s">
         <v>517</v>
       </c>
       <c r="H88" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="89" ht="24" spans="1:8">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>520</v>
+        <v>572</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D89" t="s">
+        <v>574</v>
       </c>
       <c r="H89" t="s">
-        <v>521</v>
+        <v>574</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="5" t="s">
-        <v>522</v>
+        <v>575</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>523</v>
+        <v>576</v>
+      </c>
+      <c r="D90" t="s">
+        <v>577</v>
       </c>
       <c r="H90" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="91" ht="24" spans="1:8">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="5" t="s">
-        <v>525</v>
+        <v>579</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>526</v>
+        <v>580</v>
+      </c>
+      <c r="D91" t="s">
+        <v>581</v>
       </c>
       <c r="H91" t="s">
-        <v>527</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>529</v>
+        <v>582</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D92" t="s">
+        <v>584</v>
       </c>
       <c r="H92" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="93" ht="24" spans="1:8">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>532</v>
+        <v>585</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D93" t="s">
+        <v>587</v>
       </c>
       <c r="H93" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="94" ht="24" spans="1:8">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>535</v>
+        <v>588</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D94" t="s">
+        <v>590</v>
       </c>
       <c r="H94" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="95" ht="24" spans="1:8">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>538</v>
+        <v>591</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D95" t="s">
+        <v>593</v>
       </c>
       <c r="H95" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="96" ht="24" spans="1:8">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="5" t="s">
-        <v>540</v>
+        <v>594</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>541</v>
+        <v>595</v>
+      </c>
+      <c r="D96" t="s">
+        <v>596</v>
       </c>
       <c r="H96" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="97" ht="24" spans="1:8">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="5" t="s">
-        <v>543</v>
+        <v>597</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>544</v>
+        <v>598</v>
+      </c>
+      <c r="D97" t="s">
+        <v>599</v>
       </c>
       <c r="H97" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="98" ht="24" spans="1:8">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="5" t="s">
-        <v>546</v>
+        <v>600</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>547</v>
+        <v>601</v>
+      </c>
+      <c r="D98" t="s">
+        <v>602</v>
       </c>
       <c r="H98" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="99" ht="24" spans="1:8">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>550</v>
+        <v>603</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D99" t="s">
+        <v>605</v>
       </c>
       <c r="H99" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="100" ht="24" spans="1:8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>553</v>
+        <v>606</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="D100" t="s">
+        <v>608</v>
       </c>
       <c r="H100" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="101" ht="24" spans="1:8">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>556</v>
+        <v>609</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D101" t="s">
+        <v>611</v>
       </c>
       <c r="H101" t="s">
-        <v>557</v>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="D102" t="s">
+        <v>614</v>
+      </c>
+      <c r="H102" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="5" t="s">
-        <v>558</v>
+        <v>615</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>559</v>
+        <v>616</v>
+      </c>
+      <c r="D103" t="s">
+        <v>617</v>
       </c>
       <c r="H103" t="s">
-        <v>560</v>
+        <v>617</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="5" t="s">
-        <v>561</v>
+        <v>618</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>562</v>
+        <v>619</v>
+      </c>
+      <c r="D104" t="s">
+        <v>620</v>
       </c>
       <c r="H104" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="5" t="s">
-        <v>564</v>
+        <v>621</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>565</v>
+        <v>622</v>
+      </c>
+      <c r="D105" t="s">
+        <v>623</v>
       </c>
       <c r="H105" t="s">
-        <v>566</v>
+        <v>623</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="5" t="s">
-        <v>567</v>
+        <v>624</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>568</v>
+        <v>625</v>
+      </c>
+      <c r="D106" t="s">
+        <v>626</v>
       </c>
       <c r="H106" t="s">
-        <v>569</v>
+        <v>626</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="5" t="s">
-        <v>570</v>
+        <v>627</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>571</v>
+        <v>628</v>
+      </c>
+      <c r="D107" t="s">
+        <v>629</v>
       </c>
       <c r="H107" t="s">
-        <v>572</v>
+        <v>629</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="5" t="s">
-        <v>573</v>
+        <v>630</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>574</v>
+        <v>631</v>
+      </c>
+      <c r="D108" t="s">
+        <v>632</v>
       </c>
       <c r="H108" t="s">
-        <v>575</v>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="D109" t="s">
+        <v>635</v>
+      </c>
+      <c r="H109" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D110" t="s">
+        <v>638</v>
+      </c>
+      <c r="H110" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="D111" t="s">
+        <v>641</v>
+      </c>
+      <c r="H111" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D112" t="s">
+        <v>644</v>
+      </c>
+      <c r="H112" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D113" t="s">
+        <v>647</v>
+      </c>
+      <c r="H113" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D114" t="s">
+        <v>650</v>
+      </c>
+      <c r="H114" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D115" t="s">
+        <v>653</v>
+      </c>
+      <c r="H115" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D116" t="s">
+        <v>656</v>
+      </c>
+      <c r="H116" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D117" t="s">
+        <v>659</v>
+      </c>
+      <c r="H117" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D118" t="s">
+        <v>662</v>
+      </c>
+      <c r="H118" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="D119" t="s">
+        <v>665</v>
+      </c>
+      <c r="H119" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="D120" t="s">
+        <v>668</v>
+      </c>
+      <c r="H120" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D121" t="s">
+        <v>671</v>
+      </c>
+      <c r="H121" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D122" t="s">
+        <v>674</v>
+      </c>
+      <c r="H122" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="D123" t="s">
+        <v>677</v>
+      </c>
+      <c r="H123" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="D124" t="s">
+        <v>680</v>
+      </c>
+      <c r="H124" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="D125" t="s">
+        <v>683</v>
+      </c>
+      <c r="H125" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="D126" t="s">
+        <v>686</v>
+      </c>
+      <c r="H126" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="D127" t="s">
+        <v>689</v>
+      </c>
+      <c r="H127" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="D128" t="s">
+        <v>692</v>
+      </c>
+      <c r="H128" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="9"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="9"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="D130" t="s">
+        <v>695</v>
+      </c>
+      <c r="H130" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="D131" t="s">
+        <v>698</v>
+      </c>
+      <c r="H131" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D132" t="s">
+        <v>701</v>
+      </c>
+      <c r="H132" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="D133" t="s">
+        <v>704</v>
+      </c>
+      <c r="H133" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="D134" t="s">
+        <v>707</v>
+      </c>
+      <c r="H134" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D135" t="s">
+        <v>710</v>
+      </c>
+      <c r="H135" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="D136" t="s">
+        <v>713</v>
+      </c>
+      <c r="H136" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D137" t="s">
+        <v>716</v>
+      </c>
+      <c r="H137" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D138" t="s">
+        <v>719</v>
+      </c>
+      <c r="H138" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="D139" t="s">
+        <v>722</v>
+      </c>
+      <c r="H139" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D140" t="s">
+        <v>725</v>
+      </c>
+      <c r="H140" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="D141" t="s">
+        <v>728</v>
+      </c>
+      <c r="H141" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="D142" t="s">
+        <v>731</v>
+      </c>
+      <c r="H142" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="D143" t="s">
+        <v>734</v>
+      </c>
+      <c r="H143" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="D144" t="s">
+        <v>737</v>
+      </c>
+      <c r="H144" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="D145" t="s">
+        <v>740</v>
+      </c>
+      <c r="H145" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="D146" t="s">
+        <v>743</v>
+      </c>
+      <c r="H146" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="D147" t="s">
+        <v>746</v>
+      </c>
+      <c r="H147" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="D148" t="s">
+        <v>749</v>
+      </c>
+      <c r="H148" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="D149" t="s">
+        <v>752</v>
+      </c>
+      <c r="H149" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="D150" t="s">
+        <v>755</v>
+      </c>
+      <c r="H150" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="D151" t="s">
+        <v>758</v>
+      </c>
+      <c r="H151" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="D152" t="s">
+        <v>761</v>
+      </c>
+      <c r="H152" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="D153" t="s">
+        <v>764</v>
+      </c>
+      <c r="H153" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="D154" t="s">
+        <v>767</v>
+      </c>
+      <c r="H154" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="D155" t="s">
+        <v>770</v>
+      </c>
+      <c r="H155" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="D156" t="s">
+        <v>773</v>
+      </c>
+      <c r="H156" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D157" t="s">
+        <v>776</v>
+      </c>
+      <c r="H157" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="D158" t="s">
+        <v>779</v>
+      </c>
+      <c r="H158" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="D159" t="s">
+        <v>782</v>
+      </c>
+      <c r="H159" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="D160" t="s">
+        <v>785</v>
+      </c>
+      <c r="H160" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D161" t="s">
+        <v>788</v>
+      </c>
+      <c r="H161" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="D162" t="s">
+        <v>791</v>
+      </c>
+      <c r="H162" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="D163" t="s">
+        <v>794</v>
+      </c>
+      <c r="H163" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="D164" t="s">
+        <v>797</v>
+      </c>
+      <c r="H164" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="D165" t="s">
+        <v>800</v>
+      </c>
+      <c r="H165" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="D166" t="s">
+        <v>803</v>
+      </c>
+      <c r="H166" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="D167" t="s">
+        <v>806</v>
+      </c>
+      <c r="H167" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="D168" t="s">
+        <v>809</v>
+      </c>
+      <c r="H168" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="D169" t="s">
+        <v>812</v>
+      </c>
+      <c r="H169" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="D170" t="s">
+        <v>815</v>
+      </c>
+      <c r="H170" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D171" t="s">
+        <v>818</v>
+      </c>
+      <c r="H171" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="D172" t="s">
+        <v>821</v>
+      </c>
+      <c r="H172" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="D173" t="s">
+        <v>824</v>
+      </c>
+      <c r="H173" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="D174" t="s">
+        <v>827</v>
+      </c>
+      <c r="H174" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D175" t="s">
+        <v>830</v>
+      </c>
+      <c r="H175" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="D176" t="s">
+        <v>833</v>
+      </c>
+      <c r="H176" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="D177" t="s">
+        <v>836</v>
+      </c>
+      <c r="H177" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D178" t="s">
+        <v>839</v>
+      </c>
+      <c r="H178" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="D179" t="s">
+        <v>842</v>
+      </c>
+      <c r="H179" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="D180" t="s">
+        <v>845</v>
+      </c>
+      <c r="H180" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="D181" t="s">
+        <v>848</v>
+      </c>
+      <c r="H181" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="D184" t="s">
+        <v>851</v>
+      </c>
+      <c r="H184" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="D185" t="s">
+        <v>854</v>
+      </c>
+      <c r="H185" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="D186" t="s">
+        <v>857</v>
+      </c>
+      <c r="H186" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="D187" t="s">
+        <v>860</v>
+      </c>
+      <c r="H187" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="D188" t="s">
+        <v>863</v>
+      </c>
+      <c r="H188" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="D189" t="s">
+        <v>866</v>
+      </c>
+      <c r="H189" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="D190" t="s">
+        <v>869</v>
+      </c>
+      <c r="H190" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="D191" t="s">
+        <v>872</v>
+      </c>
+      <c r="H191" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="D192" t="s">
+        <v>875</v>
+      </c>
+      <c r="H192" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="D193" t="s">
+        <v>878</v>
+      </c>
+      <c r="H193" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="D194" t="s">
+        <v>881</v>
+      </c>
+      <c r="H194" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="D195" t="s">
+        <v>884</v>
+      </c>
+      <c r="H195" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="D196" t="s">
+        <v>887</v>
+      </c>
+      <c r="H196" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="D197" t="s">
+        <v>890</v>
+      </c>
+      <c r="H197" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="D198" t="s">
+        <v>893</v>
+      </c>
+      <c r="H198" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="D199" t="s">
+        <v>896</v>
+      </c>
+      <c r="H199" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="D200" t="s">
+        <v>899</v>
+      </c>
+      <c r="H200" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="D201" t="s">
+        <v>902</v>
+      </c>
+      <c r="H201" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="D202" t="s">
+        <v>905</v>
+      </c>
+      <c r="H202" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="D203" t="s">
+        <v>908</v>
+      </c>
+      <c r="H203" t="s">
+        <v>896</v>
       </c>
     </row>
   </sheetData>
